--- a/stats.xlsx
+++ b/stats.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="csv" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="68">
   <si>
     <t>dob</t>
   </si>
@@ -171,6 +172,63 @@
   </si>
   <si>
     <t>event_court</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>ranking_type</t>
+  </si>
+  <si>
+    <t>setting</t>
+  </si>
+  <si>
+    <t>court_surface</t>
+  </si>
+  <si>
+    <t>player_id</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>Federer</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Carpet</t>
+  </si>
+  <si>
+    <t>Vienna</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>Tennis Masters Cup</t>
+  </si>
+  <si>
+    <t>Halle</t>
+  </si>
+  <si>
+    <t>Munich</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Bangkok</t>
+  </si>
+  <si>
+    <t>Gstaad</t>
   </si>
 </sst>
 </file>
@@ -229,12 +287,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J87"/>
+  <dimension ref="B2:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -583,19 +644,19 @@
       <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="6">
         <v>2004</v>
       </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="H4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -612,19 +673,19 @@
       <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="5">
         <v>2005</v>
       </c>
-      <c r="H5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="H5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -641,19 +702,19 @@
       <c r="E6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <v>2005</v>
       </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="H6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -670,19 +731,19 @@
       <c r="E7" t="s">
         <v>4</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="5">
         <v>2005</v>
       </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="H7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -699,19 +760,19 @@
       <c r="E8" t="s">
         <v>4</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="5">
         <v>2005</v>
       </c>
-      <c r="H8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="H8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -728,19 +789,19 @@
       <c r="E9" t="s">
         <v>4</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="5">
         <v>2005</v>
       </c>
-      <c r="H9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="H9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -757,19 +818,19 @@
       <c r="E10" t="s">
         <v>4</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="5">
         <v>2005</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="I10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -786,19 +847,19 @@
       <c r="E11" t="s">
         <v>4</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="5">
         <v>2005</v>
       </c>
-      <c r="H11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="H11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -815,19 +876,19 @@
       <c r="E12" t="s">
         <v>4</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="5">
         <v>2005</v>
       </c>
-      <c r="H12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="2" t="s">
+      <c r="H12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -844,19 +905,19 @@
       <c r="E13" t="s">
         <v>4</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="5">
         <v>2005</v>
       </c>
-      <c r="H13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="2" t="s">
+      <c r="H13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -873,19 +934,19 @@
       <c r="E14" t="s">
         <v>4</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="5">
         <v>2005</v>
       </c>
-      <c r="H14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="2" t="s">
+      <c r="H14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -902,19 +963,19 @@
       <c r="E15" t="s">
         <v>4</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="5">
         <v>2005</v>
       </c>
-      <c r="H15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="2" t="s">
+      <c r="H15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -931,19 +992,19 @@
       <c r="E16" t="s">
         <v>4</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="5">
         <v>2006</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="2" t="s">
+      <c r="I16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -960,19 +1021,19 @@
       <c r="E17" t="s">
         <v>4</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="5">
         <v>2006</v>
       </c>
-      <c r="H17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="2" t="s">
+      <c r="H17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -989,19 +1050,19 @@
       <c r="E18" t="s">
         <v>4</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="5">
         <v>2006</v>
       </c>
-      <c r="H18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="2" t="s">
+      <c r="H18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1018,19 +1079,19 @@
       <c r="E19" t="s">
         <v>4</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="5">
         <v>2006</v>
       </c>
-      <c r="H19" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="2" t="s">
+      <c r="H19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1047,19 +1108,19 @@
       <c r="E20" t="s">
         <v>4</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="5">
         <v>2006</v>
       </c>
-      <c r="H20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="2" t="s">
+      <c r="H20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1076,19 +1137,19 @@
       <c r="E21" t="s">
         <v>4</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="5">
         <v>2007</v>
       </c>
-      <c r="H21" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" s="2" t="s">
+      <c r="H21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1105,19 +1166,19 @@
       <c r="E22" t="s">
         <v>4</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="5">
         <v>2007</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="2" t="s">
+      <c r="I22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1134,19 +1195,19 @@
       <c r="E23" t="s">
         <v>4</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="5">
         <v>2007</v>
       </c>
-      <c r="H23" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="2" t="s">
+      <c r="H23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1163,19 +1224,19 @@
       <c r="E24" t="s">
         <v>4</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="5">
         <v>2007</v>
       </c>
-      <c r="H24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J24" s="2" t="s">
+      <c r="H24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1192,19 +1253,19 @@
       <c r="E25" t="s">
         <v>4</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="5">
         <v>2007</v>
       </c>
-      <c r="H25" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" s="2" t="s">
+      <c r="H25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1221,19 +1282,19 @@
       <c r="E26" t="s">
         <v>4</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="5">
         <v>2007</v>
       </c>
-      <c r="H26" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J26" s="2" t="s">
+      <c r="H26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3004,6 +3065,1143 @@
       </c>
       <c r="J87" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="B89" t="s">
+        <v>55</v>
+      </c>
+      <c r="C89" t="s">
+        <v>56</v>
+      </c>
+      <c r="D89" s="7">
+        <v>29806</v>
+      </c>
+      <c r="E89" t="s">
+        <v>57</v>
+      </c>
+      <c r="F89" t="s">
+        <v>58</v>
+      </c>
+      <c r="G89" s="2">
+        <v>2001</v>
+      </c>
+      <c r="H89" t="s">
+        <v>6</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J89" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="B90" t="s">
+        <v>55</v>
+      </c>
+      <c r="C90" t="s">
+        <v>56</v>
+      </c>
+      <c r="D90" s="7">
+        <v>29806</v>
+      </c>
+      <c r="E90" t="s">
+        <v>57</v>
+      </c>
+      <c r="F90" t="s">
+        <v>60</v>
+      </c>
+      <c r="G90" s="2">
+        <v>2002</v>
+      </c>
+      <c r="H90" t="s">
+        <v>6</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="B91" t="s">
+        <v>55</v>
+      </c>
+      <c r="C91" t="s">
+        <v>56</v>
+      </c>
+      <c r="D91" s="7">
+        <v>29806</v>
+      </c>
+      <c r="E91" t="s">
+        <v>57</v>
+      </c>
+      <c r="F91" t="s">
+        <v>31</v>
+      </c>
+      <c r="G91" s="2">
+        <v>2002</v>
+      </c>
+      <c r="H91" t="s">
+        <v>6</v>
+      </c>
+      <c r="I91" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="B92" t="s">
+        <v>55</v>
+      </c>
+      <c r="C92" t="s">
+        <v>56</v>
+      </c>
+      <c r="D92" s="7">
+        <v>29806</v>
+      </c>
+      <c r="E92" t="s">
+        <v>57</v>
+      </c>
+      <c r="F92" t="s">
+        <v>61</v>
+      </c>
+      <c r="G92" s="2">
+        <v>2002</v>
+      </c>
+      <c r="H92" t="s">
+        <v>6</v>
+      </c>
+      <c r="I92" t="s">
+        <v>8</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93" t="s">
+        <v>55</v>
+      </c>
+      <c r="C93" t="s">
+        <v>56</v>
+      </c>
+      <c r="D93" s="7">
+        <v>29806</v>
+      </c>
+      <c r="E93" t="s">
+        <v>57</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G93" s="5">
+        <v>2003</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" t="s">
+        <v>55</v>
+      </c>
+      <c r="C94" t="s">
+        <v>56</v>
+      </c>
+      <c r="D94" s="7">
+        <v>29806</v>
+      </c>
+      <c r="E94" t="s">
+        <v>57</v>
+      </c>
+      <c r="F94" t="s">
+        <v>60</v>
+      </c>
+      <c r="G94">
+        <v>2003</v>
+      </c>
+      <c r="H94" t="s">
+        <v>6</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="B95" t="s">
+        <v>55</v>
+      </c>
+      <c r="C95" t="s">
+        <v>56</v>
+      </c>
+      <c r="D95" s="7">
+        <v>29806</v>
+      </c>
+      <c r="E95" t="s">
+        <v>57</v>
+      </c>
+      <c r="F95" t="s">
+        <v>28</v>
+      </c>
+      <c r="G95">
+        <v>2003</v>
+      </c>
+      <c r="H95" t="s">
+        <v>17</v>
+      </c>
+      <c r="I95" t="s">
+        <v>8</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" t="s">
+        <v>55</v>
+      </c>
+      <c r="C96" t="s">
+        <v>56</v>
+      </c>
+      <c r="D96" s="7">
+        <v>29806</v>
+      </c>
+      <c r="E96" t="s">
+        <v>57</v>
+      </c>
+      <c r="F96" t="s">
+        <v>63</v>
+      </c>
+      <c r="G96">
+        <v>2003</v>
+      </c>
+      <c r="H96" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96" t="s">
+        <v>8</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10">
+      <c r="B97" t="s">
+        <v>55</v>
+      </c>
+      <c r="C97" t="s">
+        <v>56</v>
+      </c>
+      <c r="D97" s="7">
+        <v>29806</v>
+      </c>
+      <c r="E97" t="s">
+        <v>57</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G97" s="5">
+        <v>2003</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" t="s">
+        <v>55</v>
+      </c>
+      <c r="C98" t="s">
+        <v>56</v>
+      </c>
+      <c r="D98" s="7">
+        <v>29806</v>
+      </c>
+      <c r="E98" t="s">
+        <v>57</v>
+      </c>
+      <c r="F98" t="s">
+        <v>24</v>
+      </c>
+      <c r="G98">
+        <v>2003</v>
+      </c>
+      <c r="H98" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" t="s">
+        <v>8</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99" t="s">
+        <v>56</v>
+      </c>
+      <c r="D99" s="7">
+        <v>29806</v>
+      </c>
+      <c r="E99" t="s">
+        <v>57</v>
+      </c>
+      <c r="F99" t="s">
+        <v>65</v>
+      </c>
+      <c r="G99">
+        <v>2003</v>
+      </c>
+      <c r="H99" t="s">
+        <v>6</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100" t="s">
+        <v>56</v>
+      </c>
+      <c r="D100" s="7">
+        <v>29806</v>
+      </c>
+      <c r="E100" t="s">
+        <v>57</v>
+      </c>
+      <c r="F100" t="s">
+        <v>62</v>
+      </c>
+      <c r="G100">
+        <v>2004</v>
+      </c>
+      <c r="H100" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" t="s">
+        <v>55</v>
+      </c>
+      <c r="C101" t="s">
+        <v>56</v>
+      </c>
+      <c r="D101" s="7">
+        <v>29806</v>
+      </c>
+      <c r="E101" t="s">
+        <v>57</v>
+      </c>
+      <c r="F101" t="s">
+        <v>66</v>
+      </c>
+      <c r="G101">
+        <v>2004</v>
+      </c>
+      <c r="H101" t="s">
+        <v>6</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10">
+      <c r="B102" t="s">
+        <v>55</v>
+      </c>
+      <c r="C102" t="s">
+        <v>56</v>
+      </c>
+      <c r="D102" s="7">
+        <v>29806</v>
+      </c>
+      <c r="E102" t="s">
+        <v>57</v>
+      </c>
+      <c r="F102" t="s">
+        <v>34</v>
+      </c>
+      <c r="G102">
+        <v>2004</v>
+      </c>
+      <c r="H102" t="s">
+        <v>17</v>
+      </c>
+      <c r="I102" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10">
+      <c r="B103" t="s">
+        <v>55</v>
+      </c>
+      <c r="C103" t="s">
+        <v>56</v>
+      </c>
+      <c r="D103" s="7">
+        <v>29806</v>
+      </c>
+      <c r="E103" t="s">
+        <v>57</v>
+      </c>
+      <c r="F103" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103">
+        <v>2004</v>
+      </c>
+      <c r="H103" t="s">
+        <v>6</v>
+      </c>
+      <c r="I103" t="s">
+        <v>8</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10">
+      <c r="B104" t="s">
+        <v>55</v>
+      </c>
+      <c r="C104" t="s">
+        <v>56</v>
+      </c>
+      <c r="D104" s="7">
+        <v>29806</v>
+      </c>
+      <c r="E104" t="s">
+        <v>57</v>
+      </c>
+      <c r="F104" t="s">
+        <v>67</v>
+      </c>
+      <c r="G104">
+        <v>2004</v>
+      </c>
+      <c r="H104" t="s">
+        <v>6</v>
+      </c>
+      <c r="I104" t="s">
+        <v>8</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" t="s">
+        <v>55</v>
+      </c>
+      <c r="C105" t="s">
+        <v>56</v>
+      </c>
+      <c r="D105" s="7">
+        <v>29806</v>
+      </c>
+      <c r="E105" t="s">
+        <v>57</v>
+      </c>
+      <c r="F105" t="s">
+        <v>28</v>
+      </c>
+      <c r="G105">
+        <v>2004</v>
+      </c>
+      <c r="H105" t="s">
+        <v>17</v>
+      </c>
+      <c r="I105" t="s">
+        <v>8</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10">
+      <c r="B106" t="s">
+        <v>55</v>
+      </c>
+      <c r="C106" t="s">
+        <v>56</v>
+      </c>
+      <c r="D106" s="7">
+        <v>29806</v>
+      </c>
+      <c r="E106" t="s">
+        <v>57</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G106" s="5">
+        <v>2004</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10">
+      <c r="B107" t="s">
+        <v>55</v>
+      </c>
+      <c r="C107" t="s">
+        <v>56</v>
+      </c>
+      <c r="D107" s="7">
+        <v>29806</v>
+      </c>
+      <c r="E107" t="s">
+        <v>57</v>
+      </c>
+      <c r="F107" t="s">
+        <v>31</v>
+      </c>
+      <c r="G107">
+        <v>2004</v>
+      </c>
+      <c r="H107" t="s">
+        <v>6</v>
+      </c>
+      <c r="I107" t="s">
+        <v>8</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10">
+      <c r="B108" t="s">
+        <v>55</v>
+      </c>
+      <c r="C108" t="s">
+        <v>56</v>
+      </c>
+      <c r="D108" s="7">
+        <v>29806</v>
+      </c>
+      <c r="E108" t="s">
+        <v>57</v>
+      </c>
+      <c r="F108" t="s">
+        <v>25</v>
+      </c>
+      <c r="G108">
+        <v>2004</v>
+      </c>
+      <c r="H108" t="s">
+        <v>6</v>
+      </c>
+      <c r="I108" t="s">
+        <v>8</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10">
+      <c r="B109" t="s">
+        <v>55</v>
+      </c>
+      <c r="C109" t="s">
+        <v>56</v>
+      </c>
+      <c r="D109" s="7">
+        <v>29806</v>
+      </c>
+      <c r="E109" t="s">
+        <v>57</v>
+      </c>
+      <c r="F109" t="s">
+        <v>24</v>
+      </c>
+      <c r="G109">
+        <v>2004</v>
+      </c>
+      <c r="H109" t="s">
+        <v>6</v>
+      </c>
+      <c r="I109" t="s">
+        <v>8</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10">
+      <c r="B110" t="s">
+        <v>55</v>
+      </c>
+      <c r="C110" t="s">
+        <v>56</v>
+      </c>
+      <c r="D110" s="7">
+        <v>29806</v>
+      </c>
+      <c r="E110" t="s">
+        <v>57</v>
+      </c>
+      <c r="F110" t="s">
+        <v>32</v>
+      </c>
+      <c r="G110">
+        <v>2004</v>
+      </c>
+      <c r="H110" t="s">
+        <v>17</v>
+      </c>
+      <c r="I110" t="s">
+        <v>8</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2007</v>
       </c>
     </row>
   </sheetData>
